--- a/Code/Results/Cases/Case_4_212/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_212/res_line/pl_mw.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.287175255316924</v>
+        <v>2.006434674933132</v>
       </c>
       <c r="C2">
-        <v>2.274289280602147</v>
+        <v>1.564547541784123</v>
       </c>
       <c r="D2">
-        <v>0.335999686246609</v>
+        <v>0.5283182698003515</v>
       </c>
       <c r="E2">
-        <v>0.09335052350604656</v>
+        <v>0.1640833435699314</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.0008191905114502341</v>
+        <v>0.002666014655108295</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>9.801506477799308</v>
+        <v>5.445869992638507</v>
       </c>
       <c r="J2">
-        <v>0.0264159270115556</v>
+        <v>0.05312248822832899</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,7 +454,7 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>1.021567315773716</v>
+        <v>1.029616708816015</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.960190356678424</v>
+        <v>1.97642842872915</v>
       </c>
       <c r="C3">
-        <v>1.976417316758386</v>
+        <v>1.503609022336718</v>
       </c>
       <c r="D3">
-        <v>0.3086211074071912</v>
+        <v>0.5251348404127754</v>
       </c>
       <c r="E3">
-        <v>0.08721485122098827</v>
+        <v>0.16339048030326</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.000835445627645003</v>
+        <v>0.002674642672323952</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>8.633280240681586</v>
+        <v>5.125513018071189</v>
       </c>
       <c r="J3">
-        <v>0.02544740421574332</v>
+        <v>0.05295856339539817</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,7 +501,7 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.8944968336263202</v>
+        <v>1.012928523712695</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.770838593314807</v>
+        <v>1.960548681672378</v>
       </c>
       <c r="C4">
-        <v>1.800727240978915</v>
+        <v>1.467254053891168</v>
       </c>
       <c r="D4">
-        <v>0.2926577650450213</v>
+        <v>0.5234232275861643</v>
       </c>
       <c r="E4">
-        <v>0.08363910939620212</v>
+        <v>0.1630230955894163</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.0008455240779927146</v>
+        <v>0.002680200693049759</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>7.936742491101683</v>
+        <v>4.92886761268241</v>
       </c>
       <c r="J4">
-        <v>0.02488037460173587</v>
+        <v>0.05286446046315341</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,7 +548,7 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.8203625946822299</v>
+        <v>1.003558908797949</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.696117900824987</v>
+        <v>1.954712125084598</v>
       </c>
       <c r="C5">
-        <v>1.730660505488459</v>
+        <v>1.452702397485382</v>
       </c>
       <c r="D5">
-        <v>0.2863383056344446</v>
+        <v>0.5227865767805042</v>
       </c>
       <c r="E5">
-        <v>0.08222421683147374</v>
+        <v>0.1628879213927732</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.0008496642270263831</v>
+        <v>0.002682531410546535</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>7.657184618323015</v>
+        <v>4.848730752452809</v>
       </c>
       <c r="J5">
-        <v>0.02465535792198281</v>
+        <v>0.05282774782088495</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,7 +595,7 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.7909882638100925</v>
+        <v>0.9999596210822546</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.683846740441311</v>
+        <v>1.95378114661645</v>
       </c>
       <c r="C6">
-        <v>1.719110797929886</v>
+        <v>1.450301903172317</v>
       </c>
       <c r="D6">
-        <v>0.2852994584789457</v>
+        <v>0.5226845287269697</v>
       </c>
       <c r="E6">
-        <v>0.08199166970247518</v>
+        <v>0.1628663522972822</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.0008503539205724514</v>
+        <v>0.002682922406255608</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>7.610998389249033</v>
+        <v>4.835423485064439</v>
       </c>
       <c r="J6">
-        <v>0.02461833574132655</v>
+        <v>0.05282175014129109</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,7 +642,7 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.786157430285904</v>
+        <v>0.9993751369831756</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.769821517338045</v>
+        <v>1.960467405225472</v>
       </c>
       <c r="C7">
-        <v>1.79977645184664</v>
+        <v>1.46705674386584</v>
       </c>
       <c r="D7">
-        <v>0.2925718197766827</v>
+        <v>0.5234143954726278</v>
       </c>
       <c r="E7">
-        <v>0.08361986379618713</v>
+        <v>0.1630212137905573</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.000845579768957137</v>
+        <v>0.002680231859431702</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>7.93295605469703</v>
+        <v>4.927786889246477</v>
       </c>
       <c r="J7">
-        <v>0.02487731653747005</v>
+        <v>0.05286395873822336</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.8199632289908578</v>
+        <v>1.003509483305436</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.171780041259524</v>
+        <v>1.995557284014637</v>
       </c>
       <c r="C8">
-        <v>2.169902970332885</v>
+        <v>1.543313381779342</v>
       </c>
       <c r="D8">
-        <v>0.3263659249422517</v>
+        <v>0.527170018786606</v>
       </c>
       <c r="E8">
-        <v>0.09119132455201395</v>
+        <v>0.1638323643815873</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.0008247805351629302</v>
+        <v>0.002668935736343267</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>9.393787254436347</v>
+        <v>5.33538962545768</v>
       </c>
       <c r="J8">
-        <v>0.02607565706828652</v>
+        <v>0.05306460099815702</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,7 +736,7 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.9768540960637324</v>
+        <v>1.023679603201565</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.074496947819057</v>
+        <v>2.084804451194771</v>
       </c>
       <c r="C9">
-        <v>2.968522437865602</v>
+        <v>1.701452044146151</v>
       </c>
       <c r="D9">
-        <v>0.4008602600916475</v>
+        <v>0.5364763981491478</v>
       </c>
       <c r="E9">
-        <v>0.1078841338065999</v>
+        <v>0.1658863317710484</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.0007843008300630675</v>
+        <v>0.002648836170086496</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>12.47424341059008</v>
+        <v>6.135904502400365</v>
       </c>
       <c r="J9">
-        <v>0.02869425417703475</v>
+        <v>0.05351056879250038</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>1.323200409317593</v>
+        <v>1.070270671636933</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.850633946717608</v>
+        <v>2.163199038461983</v>
       </c>
       <c r="C10">
-        <v>3.627654552681577</v>
+        <v>1.823142547529073</v>
       </c>
       <c r="D10">
-        <v>0.4632808197891336</v>
+        <v>0.5445178637922368</v>
       </c>
       <c r="E10">
-        <v>0.1218505446615339</v>
+        <v>0.1676821678725489</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.0007539141281593942</v>
+        <v>0.002635300397056122</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>14.95947546595073</v>
+        <v>6.725908999222895</v>
       </c>
       <c r="J10">
-        <v>0.0308693457936009</v>
+        <v>0.05387106763681437</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,7 +830,7 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>1.615324014755956</v>
+        <v>1.108909239930284</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.242034334367816</v>
+        <v>2.201730880565663</v>
       </c>
       <c r="C11">
-        <v>3.952092347654059</v>
+        <v>1.879757996801743</v>
       </c>
       <c r="D11">
-        <v>0.494188186037178</v>
+        <v>0.5484423024497858</v>
       </c>
       <c r="E11">
-        <v>0.1287545205469165</v>
+        <v>0.1685624193933641</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.0007396877557033221</v>
+        <v>0.00262940575539413</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>16.16651812817486</v>
+        <v>6.994975274094315</v>
       </c>
       <c r="J11">
-        <v>0.03194073430590549</v>
+        <v>0.05404238978973908</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>1.760871156320093</v>
+        <v>1.127471011547328</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.397397857349119</v>
+        <v>2.21674141798195</v>
       </c>
       <c r="C12">
-        <v>4.079528510251009</v>
+        <v>1.901382434901677</v>
       </c>
       <c r="D12">
-        <v>0.506351570630585</v>
+        <v>0.5499670610532235</v>
       </c>
       <c r="E12">
-        <v>0.1314691085162032</v>
+        <v>0.168904932632703</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.000734211854174216</v>
+        <v>0.00262721107188169</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>16.63787796557745</v>
+        <v>7.096980068301832</v>
       </c>
       <c r="J12">
-        <v>0.03236140782372487</v>
+        <v>0.05410833403263382</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,7 +924,7 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>1.818334653781179</v>
+        <v>1.134643679677154</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.363587509518197</v>
+        <v>2.213489869701334</v>
       </c>
       <c r="C13">
-        <v>4.051858871553236</v>
+        <v>1.896716906252777</v>
       </c>
       <c r="D13">
-        <v>0.5037096230502982</v>
+        <v>0.5496369517617836</v>
       </c>
       <c r="E13">
-        <v>0.1308796083940535</v>
+        <v>0.1688307567011265</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.0007353957299708186</v>
+        <v>0.002627682073953027</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>16.53566350148265</v>
+        <v>7.075006080857747</v>
       </c>
       <c r="J13">
-        <v>0.0322700810185097</v>
+        <v>0.0540940840167643</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>1.805844116803257</v>
+        <v>1.133092490672695</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.254661563869774</v>
+        <v>2.202957362647055</v>
       </c>
       <c r="C14">
-        <v>3.962477637011716</v>
+        <v>1.881533310332486</v>
       </c>
       <c r="D14">
-        <v>0.4951789907424882</v>
+        <v>0.5485669683643835</v>
       </c>
       <c r="E14">
-        <v>0.128975698539513</v>
+        <v>0.168590413713293</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.0007392392389611688</v>
+        <v>0.002629224447764134</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>16.20498849080008</v>
+        <v>7.003364850887067</v>
       </c>
       <c r="J14">
-        <v>0.03197502163637722</v>
+        <v>0.05404779356942058</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,7 +1018,7 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>1.765548006045762</v>
+        <v>1.128058218450875</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.188930118255143</v>
+        <v>2.196560714300063</v>
       </c>
       <c r="C15">
-        <v>3.90836203205032</v>
+        <v>1.872257200014246</v>
       </c>
       <c r="D15">
-        <v>0.4900170153548231</v>
+        <v>0.5479166180917332</v>
       </c>
       <c r="E15">
-        <v>0.127823285805821</v>
+        <v>0.1684443946576017</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.0007415808700539372</v>
+        <v>0.002630174069577577</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>16.00441496949924</v>
+        <v>6.95949810286902</v>
       </c>
       <c r="J15">
-        <v>0.03179634933353981</v>
+        <v>0.05401957888438957</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>1.741189862485527</v>
+        <v>1.124993362599298</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.825954521420613</v>
+        <v>2.16073920616958</v>
       </c>
       <c r="C16">
-        <v>3.607028451562485</v>
+        <v>1.81946828896173</v>
       </c>
       <c r="D16">
-        <v>0.4613192168741875</v>
+        <v>0.5442667823149918</v>
       </c>
       <c r="E16">
-        <v>0.1214120868420707</v>
+        <v>0.1676259219066658</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.0007548333294406458</v>
+        <v>0.002635690888688484</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>14.88238973781154</v>
+        <v>6.708339974618525</v>
       </c>
       <c r="J16">
-        <v>0.0308012268207456</v>
+        <v>0.05386002003058366</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,7 +1112,7 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>1.606108268661089</v>
+        <v>1.10771618108086</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.614107656141016</v>
+        <v>2.139503578649567</v>
       </c>
       <c r="C17">
-        <v>3.429113990953795</v>
+        <v>1.787409336778296</v>
       </c>
       <c r="D17">
-        <v>0.4444183322422646</v>
+        <v>0.5420961930534816</v>
       </c>
       <c r="E17">
-        <v>0.1176331016450405</v>
+        <v>0.1671400855936582</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.0007628409798146517</v>
+        <v>0.002639142382585143</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>14.21569434688382</v>
+        <v>6.554447548463543</v>
       </c>
       <c r="J17">
-        <v>0.03021371047547206</v>
+        <v>0.05376402312385586</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,7 +1159,7 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>1.526808328944213</v>
+        <v>1.0973709172479</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.49574435528325</v>
+        <v>2.127559107867</v>
       </c>
       <c r="C18">
-        <v>3.329019601312325</v>
+        <v>1.769087989614547</v>
       </c>
       <c r="D18">
-        <v>0.43492651983928</v>
+        <v>0.5408727739066705</v>
       </c>
       <c r="E18">
-        <v>0.1155097912690088</v>
+        <v>0.1668666003200272</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.0007674110932361983</v>
+        <v>0.00264115234923066</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>13.83918588718495</v>
+        <v>6.46599463108484</v>
       </c>
       <c r="J18">
-        <v>0.02988326189443669</v>
+        <v>0.05370949724168739</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>1.482349177162419</v>
+        <v>1.091513167895201</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.456225433058535</v>
+        <v>2.123561036109322</v>
       </c>
       <c r="C19">
-        <v>3.295486926040041</v>
+        <v>1.762904846937545</v>
       </c>
       <c r="D19">
-        <v>0.4317495836557725</v>
+        <v>0.5404628362018684</v>
       </c>
       <c r="E19">
-        <v>0.1147989659344937</v>
+        <v>0.1667750233960064</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.0007689531153428325</v>
+        <v>0.002641837151570639</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>13.71281697576248</v>
+        <v>6.436056063251982</v>
       </c>
       <c r="J19">
-        <v>0.02977257967458513</v>
+        <v>0.05369115362267252</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,7 +1253,7 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>1.467480441424613</v>
+        <v>1.089545671202956</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.63628817360734</v>
+        <v>2.141736186674962</v>
       </c>
       <c r="C20">
-        <v>3.447815211502927</v>
+        <v>1.790809810271867</v>
       </c>
       <c r="D20">
-        <v>0.4461931293648149</v>
+        <v>0.5423246612157584</v>
       </c>
       <c r="E20">
-        <v>0.1180300468903646</v>
+        <v>0.1671911868440539</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.0007619924368080684</v>
+        <v>0.002638772404951984</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>14.28592453856263</v>
+        <v>6.570823114623352</v>
       </c>
       <c r="J20">
-        <v>0.03027545892656036</v>
+        <v>0.05377417074770463</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>1.535127406367209</v>
+        <v>1.098462592320274</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.286445942455941</v>
+        <v>2.20603957932326</v>
       </c>
       <c r="C21">
-        <v>3.988596791041061</v>
+        <v>1.885988032197304</v>
       </c>
       <c r="D21">
-        <v>0.4976712337059723</v>
+        <v>0.5488801962953858</v>
       </c>
       <c r="E21">
-        <v>0.1295320023050479</v>
+        <v>0.1686607584800726</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.0007381130089085979</v>
+        <v>0.002628770400298902</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>16.30169688121316</v>
+        <v>7.024404336899465</v>
       </c>
       <c r="J21">
-        <v>0.03206125122155612</v>
+        <v>0.05406136108714321</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>1.777315147035011</v>
+        <v>1.129532988386671</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.754241136002236</v>
+        <v>2.250513215180433</v>
       </c>
       <c r="C22">
-        <v>4.369481101913664</v>
+        <v>1.949275330162607</v>
       </c>
       <c r="D22">
-        <v>0.5340646534125995</v>
+        <v>0.5533901280957707</v>
       </c>
       <c r="E22">
-        <v>0.1376485123355167</v>
+        <v>0.1696747604997917</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.000721967056149005</v>
+        <v>0.002622451886115791</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>17.70472398759745</v>
+        <v>7.321526627196192</v>
       </c>
       <c r="J22">
-        <v>0.03331788894647758</v>
+        <v>0.05425529016921615</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,7 +1394,7 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1.949672867567486</v>
+        <v>1.150678072990729</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.499948009858713</v>
+        <v>2.226550566081471</v>
       </c>
       <c r="C23">
-        <v>4.163241666043746</v>
+        <v>1.915397099466304</v>
       </c>
       <c r="D23">
-        <v>0.5143476908076536</v>
+        <v>0.5509623356999498</v>
       </c>
       <c r="E23">
-        <v>0.1332528691964399</v>
+        <v>0.1691286425424465</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.0007306468144392397</v>
+        <v>0.00262580431684918</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>16.94668788292535</v>
+        <v>7.162878239131032</v>
       </c>
       <c r="J23">
-        <v>0.03263766454190886</v>
+        <v>0.05415121135757772</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,7 +1441,7 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>1.856170081491712</v>
+        <v>1.139315081135052</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.626249792568501</v>
+        <v>2.140726002246936</v>
       </c>
       <c r="C24">
-        <v>3.439353638836621</v>
+        <v>1.789272114631785</v>
       </c>
       <c r="D24">
-        <v>0.4453900505497757</v>
+        <v>0.5422212945307763</v>
       </c>
       <c r="E24">
-        <v>0.1178504359425716</v>
+        <v>0.1671680658200607</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.0007623761655129577</v>
+        <v>0.002638939591570689</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>14.25415257181811</v>
+        <v>6.563419654405408</v>
       </c>
       <c r="J24">
-        <v>0.0302475198694907</v>
+        <v>0.05376958094007733</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,7 +1488,7 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>1.531362864553529</v>
+        <v>1.097968766219978</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.814211641017721</v>
+        <v>2.058435765376998</v>
       </c>
       <c r="C25">
-        <v>2.742187064598113</v>
+        <v>1.657723899321127</v>
       </c>
       <c r="D25">
-        <v>0.3795881193223352</v>
+        <v>0.5337488485819648</v>
       </c>
       <c r="E25">
-        <v>0.1031190893217051</v>
+        <v>0.1652806400934423</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.0007952931934105613</v>
+        <v>0.002654055968716018</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>11.6096923036981</v>
+        <v>5.919099307260097</v>
       </c>
       <c r="J25">
-        <v>0.02794926558379629</v>
+        <v>0.05338421623342882</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,7 +1535,7 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>1.224111726577576</v>
+        <v>1.056901188818713</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_212/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_212/res_line/pl_mw.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.006434674933132</v>
+        <v>2.287175255316754</v>
       </c>
       <c r="C2">
-        <v>1.564547541784123</v>
+        <v>2.274289280602659</v>
       </c>
       <c r="D2">
-        <v>0.5283182698003515</v>
+        <v>0.3359996862468932</v>
       </c>
       <c r="E2">
-        <v>0.1640833435699314</v>
+        <v>0.09335052350611406</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.002666014655108295</v>
+        <v>0.0008191905113368945</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>5.445869992638507</v>
+        <v>9.801506477799251</v>
       </c>
       <c r="J2">
-        <v>0.05312248822832899</v>
+        <v>0.02641592701169415</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,7 +454,7 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>1.029616708816015</v>
+        <v>1.021567315773758</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.97642842872915</v>
+        <v>1.960190356678652</v>
       </c>
       <c r="C3">
-        <v>1.503609022336718</v>
+        <v>1.976417316759921</v>
       </c>
       <c r="D3">
-        <v>0.5251348404127754</v>
+        <v>0.3086211074073759</v>
       </c>
       <c r="E3">
-        <v>0.16339048030326</v>
+        <v>0.08721485122101669</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.002674642672323952</v>
+        <v>0.0008354456277022482</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>5.125513018071189</v>
+        <v>8.63328024068133</v>
       </c>
       <c r="J3">
-        <v>0.05295856339539817</v>
+        <v>0.02544740421593161</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,7 +501,7 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>1.012928523712695</v>
+        <v>0.8944968336262491</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.960548681672378</v>
+        <v>1.770838593314295</v>
       </c>
       <c r="C4">
-        <v>1.467254053891168</v>
+        <v>1.800727240977892</v>
       </c>
       <c r="D4">
-        <v>0.5234232275861643</v>
+        <v>0.2926577650449218</v>
       </c>
       <c r="E4">
-        <v>0.1630230955894163</v>
+        <v>0.08363910939622698</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.002680200693049759</v>
+        <v>0.0008455240778439579</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>4.92886761268241</v>
+        <v>7.936742491101825</v>
       </c>
       <c r="J4">
-        <v>0.05286446046315341</v>
+        <v>0.02488037460174475</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,7 +548,7 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>1.003558908797949</v>
+        <v>0.8203625946822726</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.954712125084598</v>
+        <v>1.696117900824589</v>
       </c>
       <c r="C5">
-        <v>1.452702397485382</v>
+        <v>1.730660505487606</v>
       </c>
       <c r="D5">
-        <v>0.5227865767805042</v>
+        <v>0.286338305634402</v>
       </c>
       <c r="E5">
-        <v>0.1628879213927732</v>
+        <v>0.0822242168314169</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.002682531410546535</v>
+        <v>0.0008496642268131734</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>4.848730752452809</v>
+        <v>7.657184618322816</v>
       </c>
       <c r="J5">
-        <v>0.05282774782088495</v>
+        <v>0.02465535792218354</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,7 +595,7 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.9999596210822546</v>
+        <v>0.7909882638100569</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.95378114661645</v>
+        <v>1.683846740441481</v>
       </c>
       <c r="C6">
-        <v>1.450301903172317</v>
+        <v>1.719110797930455</v>
       </c>
       <c r="D6">
-        <v>0.5226845287269697</v>
+        <v>0.2852994584788178</v>
       </c>
       <c r="E6">
-        <v>0.1628663522972822</v>
+        <v>0.08199166970241833</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.002682922406255608</v>
+        <v>0.0008503539205968242</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>4.835423485064439</v>
+        <v>7.610998389248948</v>
       </c>
       <c r="J6">
-        <v>0.05282175014129109</v>
+        <v>0.02461833574163919</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,7 +642,7 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.9993751369831756</v>
+        <v>0.7861574302859324</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.960467405225472</v>
+        <v>1.76982151733813</v>
       </c>
       <c r="C7">
-        <v>1.46705674386584</v>
+        <v>1.799776451847094</v>
       </c>
       <c r="D7">
-        <v>0.5234143954726278</v>
+        <v>0.2925718197771943</v>
       </c>
       <c r="E7">
-        <v>0.1630212137905573</v>
+        <v>0.08361986379613739</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.002680231859431702</v>
+        <v>0.0008455797689658902</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>4.927786889246477</v>
+        <v>7.932956054696916</v>
       </c>
       <c r="J7">
-        <v>0.05286395873822336</v>
+        <v>0.02487731653745584</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>1.003509483305436</v>
+        <v>0.8199632289909147</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.995557284014637</v>
+        <v>2.171780041259467</v>
       </c>
       <c r="C8">
-        <v>1.543313381779342</v>
+        <v>2.169902970332828</v>
       </c>
       <c r="D8">
-        <v>0.527170018786606</v>
+        <v>0.3263659249425785</v>
       </c>
       <c r="E8">
-        <v>0.1638323643815873</v>
+        <v>0.09119132455197132</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.002668935736343267</v>
+        <v>0.0008247805351460549</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>5.33538962545768</v>
+        <v>9.393787254436489</v>
       </c>
       <c r="J8">
-        <v>0.05306460099815702</v>
+        <v>0.02607565706843218</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,7 +736,7 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>1.023679603201565</v>
+        <v>0.9768540960637395</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.084804451194771</v>
+        <v>3.074496947818943</v>
       </c>
       <c r="C9">
-        <v>1.701452044146151</v>
+        <v>2.968522437866</v>
       </c>
       <c r="D9">
-        <v>0.5364763981491478</v>
+        <v>0.4008602600914202</v>
       </c>
       <c r="E9">
-        <v>0.1658863317710484</v>
+        <v>0.1078841338066567</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.002648836170086496</v>
+        <v>0.0007843008303501266</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>6.135904502400365</v>
+        <v>12.47424341059033</v>
       </c>
       <c r="J9">
-        <v>0.05351056879250038</v>
+        <v>0.02869425417695126</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>1.070270671636933</v>
+        <v>1.323200409317636</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.163199038461983</v>
+        <v>3.850633946717949</v>
       </c>
       <c r="C10">
-        <v>1.823142547529073</v>
+        <v>3.627654552682259</v>
       </c>
       <c r="D10">
-        <v>0.5445178637922368</v>
+        <v>0.4632808197890199</v>
       </c>
       <c r="E10">
-        <v>0.1676821678725489</v>
+        <v>0.121850544661509</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.002635300397056122</v>
+        <v>0.0007539141278645189</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>6.725908999222895</v>
+        <v>14.95947546595085</v>
       </c>
       <c r="J10">
-        <v>0.05387106763681437</v>
+        <v>0.0308693457936684</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,7 +830,7 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>1.108909239930284</v>
+        <v>1.615324014755927</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.201730880565663</v>
+        <v>4.242034334367702</v>
       </c>
       <c r="C11">
-        <v>1.879757996801743</v>
+        <v>3.952092347654911</v>
       </c>
       <c r="D11">
-        <v>0.5484423024497858</v>
+        <v>0.4941881860370358</v>
       </c>
       <c r="E11">
-        <v>0.1685624193933641</v>
+        <v>0.1287545205470622</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.00262940575539413</v>
+        <v>0.0007396877559315592</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>6.994975274094315</v>
+        <v>16.1665181281744</v>
       </c>
       <c r="J11">
-        <v>0.05404238978973908</v>
+        <v>0.03194073430585576</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>1.127471011547328</v>
+        <v>1.760871156320064</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.21674141798195</v>
+        <v>4.397397857349233</v>
       </c>
       <c r="C12">
-        <v>1.901382434901677</v>
+        <v>4.079528510250668</v>
       </c>
       <c r="D12">
-        <v>0.5499670610532235</v>
+        <v>0.5063515706312671</v>
       </c>
       <c r="E12">
-        <v>0.168904932632703</v>
+        <v>0.1314691085162742</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.00262721107188169</v>
+        <v>0.000734211853770983</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>7.096980068301832</v>
+        <v>16.63787796557756</v>
       </c>
       <c r="J12">
-        <v>0.05410833403263382</v>
+        <v>0.03236140782416541</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,7 +924,7 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>1.134643679677154</v>
+        <v>1.81833465378115</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.213489869701334</v>
+        <v>4.363587509518425</v>
       </c>
       <c r="C13">
-        <v>1.896716906252777</v>
+        <v>4.051858871552838</v>
       </c>
       <c r="D13">
-        <v>0.5496369517617836</v>
+        <v>0.5037096230499003</v>
       </c>
       <c r="E13">
-        <v>0.1688307567011265</v>
+        <v>0.1308796083942063</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.002627682073953027</v>
+        <v>0.0007353957298366523</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>7.075006080857747</v>
+        <v>16.53566350148179</v>
       </c>
       <c r="J13">
-        <v>0.0540940840167643</v>
+        <v>0.03227008101819706</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>1.133092490672695</v>
+        <v>1.805844116803286</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.202957362647055</v>
+        <v>4.254661563869547</v>
       </c>
       <c r="C14">
-        <v>1.881533310332486</v>
+        <v>3.96247763701092</v>
       </c>
       <c r="D14">
-        <v>0.5485669683643835</v>
+        <v>0.4951789907424313</v>
       </c>
       <c r="E14">
-        <v>0.168590413713293</v>
+        <v>0.128975698539417</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.002629224447764134</v>
+        <v>0.0007392392391476113</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>7.003364850887067</v>
+        <v>16.20498849080019</v>
       </c>
       <c r="J14">
-        <v>0.05404779356942058</v>
+        <v>0.03197502163614274</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,7 +1018,7 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>1.128058218450875</v>
+        <v>1.765548006045705</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.196560714300063</v>
+        <v>4.188930118254689</v>
       </c>
       <c r="C15">
-        <v>1.872257200014246</v>
+        <v>3.908362032050263</v>
       </c>
       <c r="D15">
-        <v>0.5479166180917332</v>
+        <v>0.490017015354141</v>
       </c>
       <c r="E15">
-        <v>0.1684443946576017</v>
+        <v>0.1278232858057713</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.002630174069577577</v>
+        <v>0.0007415808700983462</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>6.95949810286902</v>
+        <v>16.00441496949895</v>
       </c>
       <c r="J15">
-        <v>0.05401957888438957</v>
+        <v>0.03179634933325204</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>1.124993362599298</v>
+        <v>1.741189862485513</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.16073920616958</v>
+        <v>3.825954521420158</v>
       </c>
       <c r="C16">
-        <v>1.81946828896173</v>
+        <v>3.607028451562826</v>
       </c>
       <c r="D16">
-        <v>0.5442667823149918</v>
+        <v>0.4613192168748981</v>
       </c>
       <c r="E16">
-        <v>0.1676259219066658</v>
+        <v>0.1214120868420991</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.002635690888688484</v>
+        <v>0.0007548333295060714</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>6.708339974618525</v>
+        <v>14.88238973781165</v>
       </c>
       <c r="J16">
-        <v>0.05386002003058366</v>
+        <v>0.03080122682083086</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,7 +1112,7 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>1.10771618108086</v>
+        <v>1.606108268661174</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.139503578649567</v>
+        <v>3.614107656140504</v>
       </c>
       <c r="C17">
-        <v>1.787409336778296</v>
+        <v>3.429113990951464</v>
       </c>
       <c r="D17">
-        <v>0.5420961930534816</v>
+        <v>0.4444183322419235</v>
       </c>
       <c r="E17">
-        <v>0.1671400855936582</v>
+        <v>0.1176331016451648</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.002639142382585143</v>
+        <v>0.0007628409800050081</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>6.554447548463543</v>
+        <v>14.21569434688371</v>
       </c>
       <c r="J17">
-        <v>0.05376402312385586</v>
+        <v>0.0302137104754685</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,7 +1159,7 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>1.0973709172479</v>
+        <v>1.526808328944227</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.127559107867</v>
+        <v>3.49574435528325</v>
       </c>
       <c r="C18">
-        <v>1.769087989614547</v>
+        <v>3.329019601313007</v>
       </c>
       <c r="D18">
-        <v>0.5408727739066705</v>
+        <v>0.4349265198395642</v>
       </c>
       <c r="E18">
-        <v>0.1668666003200272</v>
+        <v>0.1155097912690586</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.00264115234923066</v>
+        <v>0.0007674110930399392</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>6.46599463108484</v>
+        <v>13.83918588718515</v>
       </c>
       <c r="J18">
-        <v>0.05370949724168739</v>
+        <v>0.02988326189413648</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>1.091513167895201</v>
+        <v>1.482349177162433</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.123561036109322</v>
+        <v>3.456225433058933</v>
       </c>
       <c r="C19">
-        <v>1.762904846937545</v>
+        <v>3.295486926040496</v>
       </c>
       <c r="D19">
-        <v>0.5404628362018684</v>
+        <v>0.4317495836556873</v>
       </c>
       <c r="E19">
-        <v>0.1667750233960064</v>
+        <v>0.1147989659345576</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.002641837151570639</v>
+        <v>0.0007689531152192148</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>6.436056063251982</v>
+        <v>13.71281697576265</v>
       </c>
       <c r="J19">
-        <v>0.05369115362267252</v>
+        <v>0.02977257967495461</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,7 +1253,7 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>1.089545671202956</v>
+        <v>1.467480441424613</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.141736186674962</v>
+        <v>3.636288173606658</v>
       </c>
       <c r="C20">
-        <v>1.790809810271867</v>
+        <v>3.447815211502132</v>
       </c>
       <c r="D20">
-        <v>0.5423246612157584</v>
+        <v>0.4461931293646444</v>
       </c>
       <c r="E20">
-        <v>0.1671911868440539</v>
+        <v>0.1180300468902686</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.002638772404951984</v>
+        <v>0.0007619924367775651</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>6.570823114623352</v>
+        <v>14.28592453856282</v>
       </c>
       <c r="J20">
-        <v>0.05377417074770463</v>
+        <v>0.03027545892615535</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,7 +1300,7 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>1.098462592320274</v>
+        <v>1.535127406367209</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.20603957932326</v>
+        <v>4.2864459424556</v>
       </c>
       <c r="C21">
-        <v>1.885988032197304</v>
+        <v>3.988596791040209</v>
       </c>
       <c r="D21">
-        <v>0.5488801962953858</v>
+        <v>0.497671233705546</v>
       </c>
       <c r="E21">
-        <v>0.1686607584800726</v>
+        <v>0.12953200230492</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.002628770400298902</v>
+        <v>0.0007381130090006107</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>7.024404336899465</v>
+        <v>16.30169688121333</v>
       </c>
       <c r="J21">
-        <v>0.05406136108714321</v>
+        <v>0.03206125122123282</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>1.129532988386671</v>
+        <v>1.777315147034955</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.250513215180433</v>
+        <v>4.75424113600252</v>
       </c>
       <c r="C22">
-        <v>1.949275330162607</v>
+        <v>4.369481101914459</v>
       </c>
       <c r="D22">
-        <v>0.5533901280957707</v>
+        <v>0.534064653413111</v>
       </c>
       <c r="E22">
-        <v>0.1696747604997917</v>
+        <v>0.1376485123354385</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.002622451886115791</v>
+        <v>0.0007219670561587723</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>7.321526627196192</v>
+        <v>17.70472398759739</v>
       </c>
       <c r="J22">
-        <v>0.05425529016921615</v>
+        <v>0.03331788894600507</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,7 +1394,7 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1.150678072990729</v>
+        <v>1.949672867567472</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.226550566081471</v>
+        <v>4.499948009859281</v>
       </c>
       <c r="C23">
-        <v>1.915397099466304</v>
+        <v>4.163241666044996</v>
       </c>
       <c r="D23">
-        <v>0.5509623356999498</v>
+        <v>0.5143476908077389</v>
       </c>
       <c r="E23">
-        <v>0.1691286425424465</v>
+        <v>0.1332528691964683</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.00262580431684918</v>
+        <v>0.0007306468146781697</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>7.162878239131032</v>
+        <v>16.9466878829258</v>
       </c>
       <c r="J23">
-        <v>0.05415121135757772</v>
+        <v>0.03263766454204031</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,7 +1441,7 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>1.139315081135052</v>
+        <v>1.856170081491683</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.140726002246936</v>
+        <v>3.626249792568728</v>
       </c>
       <c r="C24">
-        <v>1.789272114631785</v>
+        <v>3.439353638837531</v>
       </c>
       <c r="D24">
-        <v>0.5422212945307763</v>
+        <v>0.4453900505496051</v>
       </c>
       <c r="E24">
-        <v>0.1671680658200607</v>
+        <v>0.1178504359427137</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.002638939591570689</v>
+        <v>0.000762376165563057</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>6.563419654405408</v>
+        <v>14.25415257181746</v>
       </c>
       <c r="J24">
-        <v>0.05376958094007733</v>
+        <v>0.03024751986932728</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,7 +1488,7 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>1.097968766219978</v>
+        <v>1.531362864553543</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.058435765376998</v>
+        <v>2.814211641017948</v>
       </c>
       <c r="C25">
-        <v>1.657723899321127</v>
+        <v>2.742187064598738</v>
       </c>
       <c r="D25">
-        <v>0.5337488485819648</v>
+        <v>0.3795881193221646</v>
       </c>
       <c r="E25">
-        <v>0.1652806400934423</v>
+        <v>0.1031190893217016</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.002654055968716018</v>
+        <v>0.0007952931932731109</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>5.919099307260097</v>
+        <v>11.60969230369798</v>
       </c>
       <c r="J25">
-        <v>0.05338421623342882</v>
+        <v>0.027949265584434</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,7 +1535,7 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>1.056901188818713</v>
+        <v>1.224111726577533</v>
       </c>
       <c r="N25">
         <v>0</v>
